--- a/bitget_project/manage/0912/0912업데이트목록.xlsx
+++ b/bitget_project/manage/0912/0912업데이트목록.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mandleda\bitget_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41073628-D9F2-4754-9BAB-F1D7BE519DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B025CF7-B012-4E01-BAA0-9B70CB074D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-4725" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -303,6 +313,81 @@
   </si>
   <si>
     <t>if int(div_data[symbol][position]['state'][0]) &lt;= div_data[symbol]['div_step'] : #마지막 단계보다 작으면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 close시 state '대기'로 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state 대기, 완료 -&gt; 대기로 통합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할매수 대기상태 셀값 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물타기 로직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>놔둬도됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지 제한 오류시 stop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 물타기 설정값 &gt; ROE 강제 분할매수 -&gt; 소스코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.최대 물타기
+○ 1차매수 -&gt; 최대물타기 적용
+○ 6차매수 -&gt; 최대물타기 미적용
+손절% &lt; 최대물타기%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.손절
+○ 1차매수 -&gt; 손절
+○ 2차매수 -&gt; 손절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.마지막 단계 색상
+○ 2단계로 설정 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에서 매수하면 0차 매수 상태로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 프로그램매매 X, 웹에서 open -&gt; 상태 '대기'
+-&gt; [시작] -&gt; 추가매수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정값:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.분할매수
+○ 1차 분할매수
+○ 6차 분할매수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.익절
+○ 1차 익절
+○ 6차 익절</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +434,15 @@
       <u/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -409,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,6 +520,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1092,12 +1190,116 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>65</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="G58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G60" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
